--- a/data files/Purchase Order/SARAH-PORTEX.xlsx
+++ b/data files/Purchase Order/SARAH-PORTEX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D77616-5754-49CF-9A25-1015FEA43F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5160" yWindow="1152" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>To,</t>
   </si>
@@ -139,13 +140,25 @@
   </si>
   <si>
     <t>520.30</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +252,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -279,7 +303,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -308,14 +332,14 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,8 +378,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -363,6 +386,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,13 +402,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +454,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -448,6 +488,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -482,9 +523,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,24 +699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A56"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="40">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="39">
         <v>44540</v>
       </c>
       <c r="B1" s="1"/>
@@ -682,14 +724,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -698,7 +740,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -707,7 +749,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -716,7 +758,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
@@ -725,14 +767,14 @@
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -741,7 +783,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
@@ -751,27 +793,36 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>1</v>
       </c>
@@ -789,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>2</v>
       </c>
@@ -807,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>3</v>
       </c>
@@ -825,7 +876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>4</v>
       </c>
@@ -843,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>5</v>
       </c>
@@ -861,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>6</v>
       </c>
@@ -879,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>7</v>
       </c>
@@ -897,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>8</v>
       </c>
@@ -915,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
@@ -923,7 +974,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>9</v>
       </c>
@@ -941,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>10</v>
       </c>
@@ -959,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>11</v>
       </c>
@@ -977,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>12</v>
       </c>
@@ -995,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>13</v>
       </c>
@@ -1013,7 +1064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -1021,7 +1072,7 @@
       <c r="E26" s="34"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>14</v>
       </c>
@@ -1037,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>15</v>
       </c>
@@ -1053,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
@@ -1061,7 +1112,7 @@
       <c r="E29" s="32"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
@@ -1069,7 +1120,7 @@
       <c r="E30" s="34"/>
       <c r="F30" s="35"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>16</v>
       </c>
@@ -1087,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>17</v>
       </c>
@@ -1100,12 +1151,12 @@
       <c r="D32" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>18</v>
       </c>
@@ -1123,22 +1174,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="35"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>19</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="29"/>
@@ -1147,14 +1198,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>20</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="29"/>
@@ -1163,22 +1214,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>21</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="29"/>
@@ -1187,15 +1238,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="38"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="35"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>22</v>
       </c>
@@ -1209,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>23</v>
       </c>
@@ -1223,15 +1274,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="38"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="35"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>24</v>
       </c>
@@ -1247,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
@@ -1255,7 +1306,7 @@
       <c r="E44" s="36"/>
       <c r="F44" s="35"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>25</v>
       </c>
@@ -1271,15 +1322,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="38"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="35"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>26</v>
       </c>
@@ -1293,15 +1344,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="38"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="35"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>27</v>
       </c>
@@ -1317,15 +1368,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
-      <c r="E50" s="38"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="35"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1385,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>17</v>
       </c>
@@ -1343,79 +1394,79 @@
       <c r="D52" s="14"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="13"/>
       <c r="D53" s="14"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="10"/>
       <c r="C55" s="12"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="15"/>
       <c r="D56" s="17"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="10"/>
       <c r="C57" s="15"/>
       <c r="D57" s="17"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="3"/>
       <c r="C58" s="15"/>
       <c r="D58" s="17"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
       <c r="C59" s="15"/>
       <c r="D59" s="9"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
     </row>
-    <row r="66" spans="3:5" ht="15.75">
+    <row r="66" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D66" s="17"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="3:5" ht="15.75">
+    <row r="67" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D67" s="19"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="3:5" ht="15.75">
+    <row r="68" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C68" s="20"/>
       <c r="D68" s="19"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="3:5" ht="15.75">
+    <row r="69" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C69" s="20"/>
       <c r="D69" s="19"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="3:5" ht="15.75">
+    <row r="70" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.54" right="0.11" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1423,24 +1474,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
